--- a/Test cases and condition for Competition Task.xlsx
+++ b/Test cases and condition for Competition Task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rammy\Desktop\marsframework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelam\Desktop\Mars project\MarsFramework-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B921F5-CE4B-4C5E-B2BA-C7FA41259B19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB2900A-3962-45B2-A82D-3BA397C8F256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="510" windowWidth="20730" windowHeight="10530" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrade Test Condition" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="257">
   <si>
     <t>Test ID</t>
   </si>
@@ -788,6 +788,12 @@
   </si>
   <si>
     <t>When clicking save button, an error pop up saying "There is an error when updating Work Samples - undefined." Page don't get directed to Manage Listing Page but the data does get added in the listings</t>
+  </si>
+  <si>
+    <t>Step 2: Login with Valid Credentials Username: neelam.panda@yahoo.com.au Password: Hello@123</t>
+  </si>
+  <si>
+    <t>Step 2:Login with Valid Credentials Username: neelam.panda@yahoo.com.au Password: Hello@123</t>
   </si>
 </sst>
 </file>
@@ -1270,6 +1276,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1283,49 +1292,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1597,11 +1603,11 @@
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="100" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="43" t="s">
@@ -1610,9 +1616,9 @@
       <c r="M4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="43" t="s">
         <v>32</v>
       </c>
@@ -1624,11 +1630,11 @@
       <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="100" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="43" t="s">
@@ -1636,9 +1642,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="102"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="43" t="s">
         <v>43</v>
       </c>
@@ -1650,11 +1656,11 @@
       <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="99" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="100" t="s">
         <v>114</v>
       </c>
       <c r="D10" s="43" t="s">
@@ -1662,9 +1668,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="43" t="s">
         <v>52</v>
       </c>
@@ -1676,11 +1682,11 @@
       <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="99" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="100" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="43" t="s">
@@ -1688,9 +1694,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="102"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="43" t="s">
         <v>68</v>
       </c>
@@ -1736,11 +1742,11 @@
       <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="99" t="s">
+      <c r="B20" s="101"/>
+      <c r="C20" s="100" t="s">
         <v>130</v>
       </c>
       <c r="D20" s="43" t="s">
@@ -1748,73 +1754,73 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="102"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="43" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="102"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="43" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="102"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="43" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="102"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="43" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="43" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="102"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="43" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="102"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="43" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="102"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="43" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="102"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="43" t="s">
         <v>142</v>
       </c>
@@ -1826,11 +1832,11 @@
       <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="99" t="s">
+      <c r="B31" s="101"/>
+      <c r="C31" s="100" t="s">
         <v>146</v>
       </c>
       <c r="D31" s="43" t="s">
@@ -1838,9 +1844,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="102"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="43" t="s">
         <v>149</v>
       </c>
@@ -1852,11 +1858,11 @@
       <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="99" t="s">
+      <c r="B34" s="101"/>
+      <c r="C34" s="100" t="s">
         <v>151</v>
       </c>
       <c r="D34" s="43" t="s">
@@ -1864,9 +1870,9 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="102"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="43" t="s">
         <v>154</v>
       </c>
@@ -1959,16 +1965,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C20:C29"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
@@ -1980,6 +1976,16 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C20:C29"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2093,11 +2099,11 @@
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="104" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="76"/>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="100" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="39" t="s">
@@ -2105,9 +2111,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="76"/>
-      <c r="C11" s="100"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="39" t="s">
         <v>80</v>
       </c>
@@ -2119,11 +2125,11 @@
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="104" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="28"/>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="100" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="39" t="s">
@@ -2131,25 +2137,25 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="102"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="76"/>
-      <c r="C14" s="100"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="39" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="76"/>
-      <c r="C15" s="100"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="39" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="104"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="82"/>
-      <c r="C16" s="105"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="44" t="s">
         <v>101</v>
       </c>
@@ -2172,8 +2178,8 @@
   </sheetPr>
   <dimension ref="A1:L1016"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2214,10 +2220,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2229,17 +2235,17 @@
       <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="110" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="100"/>
+    <row r="3" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>24</v>
@@ -2247,12 +2253,12 @@
       <c r="E3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="100"/>
+      <c r="F3" s="101"/>
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="100"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
@@ -2262,7 +2268,7 @@
       <c r="E4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="100"/>
+      <c r="F4" s="101"/>
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -2276,10 +2282,10 @@
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="100" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -2296,11 +2302,11 @@
       </c>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="102"/>
-      <c r="B7" s="100"/>
+    <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="103"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>24</v>
@@ -2308,14 +2314,14 @@
       <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="100"/>
+      <c r="F7" s="101"/>
       <c r="H7" s="18"/>
       <c r="K7" s="27"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="102"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="17" t="s">
         <v>25</v>
       </c>
@@ -2325,14 +2331,14 @@
       <c r="E8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="101"/>
       <c r="H8" s="18"/>
-      <c r="K8" s="108"/>
+      <c r="K8" s="111"/>
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="102"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="17" t="s">
         <v>29</v>
       </c>
@@ -2342,9 +2348,9 @@
       <c r="E9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="100"/>
+      <c r="F9" s="101"/>
       <c r="H9" s="18"/>
-      <c r="K9" s="100"/>
+      <c r="K9" s="101"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
@@ -2355,13 +2361,13 @@
       <c r="F10" s="23"/>
       <c r="G10" s="21"/>
       <c r="H10" s="24"/>
-      <c r="K10" s="108"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="100" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -2377,13 +2383,13 @@
         <v>22</v>
       </c>
       <c r="H11" s="18"/>
-      <c r="K11" s="100"/>
-    </row>
-    <row r="12" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
-      <c r="B12" s="100"/>
+      <c r="K11" s="101"/>
+    </row>
+    <row r="12" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="103"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>24</v>
@@ -2391,13 +2397,13 @@
       <c r="E12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="101"/>
       <c r="H12" s="18"/>
-      <c r="K12" s="108"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="17" t="s">
         <v>25</v>
       </c>
@@ -2407,13 +2413,13 @@
       <c r="E13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="101"/>
       <c r="H13" s="18"/>
-      <c r="K13" s="100"/>
+      <c r="K13" s="101"/>
     </row>
     <row r="14" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="102"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="17" t="s">
         <v>33</v>
       </c>
@@ -2423,12 +2429,12 @@
       <c r="E14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="100"/>
+      <c r="F14" s="101"/>
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="17" t="s">
         <v>36</v>
       </c>
@@ -2438,7 +2444,7 @@
       <c r="E15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="100"/>
+      <c r="F15" s="101"/>
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -2452,10 +2458,10 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="100" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -2472,11 +2478,11 @@
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="100"/>
+    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="103"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>24</v>
@@ -2484,12 +2490,12 @@
       <c r="E18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="100"/>
+      <c r="F18" s="101"/>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="102"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="17" t="s">
         <v>25</v>
       </c>
@@ -2499,12 +2505,12 @@
       <c r="E19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="100"/>
+      <c r="F19" s="101"/>
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
-      <c r="B20" s="100"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="17" t="s">
         <v>40</v>
       </c>
@@ -2514,7 +2520,7 @@
       <c r="E20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="100"/>
+      <c r="F20" s="101"/>
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2528,10 +2534,10 @@
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="100" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -2549,8 +2555,8 @@
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="102"/>
-      <c r="B23" s="100"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="15" t="s">
         <v>23</v>
       </c>
@@ -2560,12 +2566,12 @@
       <c r="E23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="100"/>
+      <c r="F23" s="101"/>
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="102"/>
-      <c r="B24" s="100"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="17" t="s">
         <v>25</v>
       </c>
@@ -2575,12 +2581,12 @@
       <c r="E24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="100"/>
+      <c r="F24" s="101"/>
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="17" t="s">
         <v>40</v>
       </c>
@@ -2590,12 +2596,12 @@
       <c r="E25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="100"/>
+      <c r="F25" s="101"/>
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="102"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="17" t="s">
         <v>44</v>
       </c>
@@ -2605,7 +2611,7 @@
       <c r="E26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="100"/>
+      <c r="F26" s="101"/>
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2619,10 +2625,10 @@
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="100" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -2639,11 +2645,11 @@
       </c>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="102"/>
-      <c r="B29" s="100"/>
+    <row r="29" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="103"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>24</v>
@@ -2651,12 +2657,12 @@
       <c r="E29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="100"/>
+      <c r="F29" s="101"/>
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="102"/>
-      <c r="B30" s="100"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="17" t="s">
         <v>25</v>
       </c>
@@ -2666,12 +2672,12 @@
       <c r="E30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="100"/>
+      <c r="F30" s="101"/>
       <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="102"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="17" t="s">
         <v>49</v>
       </c>
@@ -2681,7 +2687,7 @@
       <c r="E31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="100"/>
+      <c r="F31" s="101"/>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2695,10 +2701,10 @@
       <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="100" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -2715,11 +2721,11 @@
       </c>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="102"/>
-      <c r="B34" s="100"/>
+    <row r="34" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="103"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>24</v>
@@ -2727,12 +2733,12 @@
       <c r="E34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="100"/>
+      <c r="F34" s="101"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="102"/>
-      <c r="B35" s="100"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="17" t="s">
         <v>25</v>
       </c>
@@ -2742,12 +2748,12 @@
       <c r="E35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="100"/>
+      <c r="F35" s="101"/>
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="100"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="17" t="s">
         <v>49</v>
       </c>
@@ -2757,12 +2763,12 @@
       <c r="E36" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="100"/>
+      <c r="F36" s="101"/>
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="102"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="17" t="s">
         <v>53</v>
       </c>
@@ -2772,7 +2778,7 @@
       <c r="E37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="100"/>
+      <c r="F37" s="101"/>
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2786,10 +2792,10 @@
       <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="100" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -2806,11 +2812,11 @@
       </c>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="102"/>
-      <c r="B40" s="100"/>
+    <row r="40" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="103"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>24</v>
@@ -2818,12 +2824,12 @@
       <c r="E40" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="100"/>
+      <c r="F40" s="101"/>
       <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="102"/>
-      <c r="B41" s="100"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="101"/>
       <c r="C41" s="17" t="s">
         <v>25</v>
       </c>
@@ -2833,12 +2839,12 @@
       <c r="E41" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="100"/>
+      <c r="F41" s="101"/>
       <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="102"/>
-      <c r="B42" s="100"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="101"/>
       <c r="C42" s="17" t="s">
         <v>58</v>
       </c>
@@ -2848,12 +2854,12 @@
       <c r="E42" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="100"/>
+      <c r="F42" s="101"/>
       <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="102"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="101"/>
       <c r="C43" s="17" t="s">
         <v>62</v>
       </c>
@@ -2863,7 +2869,7 @@
       <c r="E43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="100"/>
+      <c r="F43" s="101"/>
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2877,10 +2883,10 @@
       <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="100" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -2898,8 +2904,8 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="102"/>
-      <c r="B46" s="100"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="15" t="s">
         <v>23</v>
       </c>
@@ -2909,12 +2915,12 @@
       <c r="E46" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="100"/>
+      <c r="F46" s="101"/>
       <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="102"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="101"/>
       <c r="C47" s="17" t="s">
         <v>25</v>
       </c>
@@ -2924,12 +2930,12 @@
       <c r="E47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="100"/>
+      <c r="F47" s="101"/>
       <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="102"/>
-      <c r="B48" s="100"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="101"/>
       <c r="C48" s="17" t="s">
         <v>72</v>
       </c>
@@ -2939,7 +2945,7 @@
       <c r="E48" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="100"/>
+      <c r="F48" s="101"/>
       <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2953,10 +2959,10 @@
       <c r="H49" s="24"/>
     </row>
     <row r="50" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="99" t="s">
+      <c r="B50" s="100" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="15" t="s">
@@ -2973,11 +2979,11 @@
       </c>
       <c r="H50" s="18"/>
     </row>
-    <row r="51" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="102"/>
-      <c r="B51" s="100"/>
+    <row r="51" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="103"/>
+      <c r="B51" s="101"/>
       <c r="C51" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D51" s="26" t="s">
         <v>24</v>
@@ -2985,12 +2991,12 @@
       <c r="E51" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="100"/>
+      <c r="F51" s="101"/>
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="102"/>
-      <c r="B52" s="100"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="17" t="s">
         <v>25</v>
       </c>
@@ -3000,12 +3006,12 @@
       <c r="E52" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="100"/>
+      <c r="F52" s="101"/>
       <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="102"/>
-      <c r="B53" s="100"/>
+      <c r="A53" s="103"/>
+      <c r="B53" s="101"/>
       <c r="C53" s="17" t="s">
         <v>82</v>
       </c>
@@ -3015,7 +3021,7 @@
       <c r="E53" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="100"/>
+      <c r="F53" s="101"/>
       <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3029,10 +3035,10 @@
       <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="101" t="s">
+      <c r="A55" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="99" t="s">
+      <c r="B55" s="100" t="s">
         <v>85</v>
       </c>
       <c r="C55" s="15" t="s">
@@ -3049,11 +3055,11 @@
       </c>
       <c r="H55" s="18"/>
     </row>
-    <row r="56" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="102"/>
-      <c r="B56" s="100"/>
+    <row r="56" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="103"/>
+      <c r="B56" s="101"/>
       <c r="C56" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>24</v>
@@ -3061,12 +3067,12 @@
       <c r="E56" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="100"/>
+      <c r="F56" s="101"/>
       <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="102"/>
-      <c r="B57" s="100"/>
+      <c r="A57" s="103"/>
+      <c r="B57" s="101"/>
       <c r="C57" s="17" t="s">
         <v>25</v>
       </c>
@@ -3076,12 +3082,12 @@
       <c r="E57" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="100"/>
+      <c r="F57" s="101"/>
       <c r="H57" s="18"/>
     </row>
     <row r="58" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="102"/>
-      <c r="B58" s="100"/>
+      <c r="A58" s="103"/>
+      <c r="B58" s="101"/>
       <c r="C58" s="17" t="s">
         <v>86</v>
       </c>
@@ -3091,7 +3097,7 @@
       <c r="E58" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="100"/>
+      <c r="F58" s="101"/>
       <c r="H58" s="18"/>
     </row>
     <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3105,10 +3111,10 @@
       <c r="H59" s="24"/>
     </row>
     <row r="60" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="101" t="s">
+      <c r="A60" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="99" t="s">
+      <c r="B60" s="100" t="s">
         <v>90</v>
       </c>
       <c r="C60" s="15" t="s">
@@ -3125,11 +3131,11 @@
       </c>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="102"/>
-      <c r="B61" s="100"/>
+    <row r="61" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="103"/>
+      <c r="B61" s="101"/>
       <c r="C61" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>24</v>
@@ -3137,12 +3143,12 @@
       <c r="E61" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="100"/>
+      <c r="F61" s="101"/>
       <c r="H61" s="18"/>
     </row>
     <row r="62" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="102"/>
-      <c r="B62" s="100"/>
+      <c r="A62" s="103"/>
+      <c r="B62" s="101"/>
       <c r="C62" s="17" t="s">
         <v>25</v>
       </c>
@@ -3152,12 +3158,12 @@
       <c r="E62" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="100"/>
+      <c r="F62" s="101"/>
       <c r="H62" s="18"/>
     </row>
     <row r="63" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="102"/>
-      <c r="B63" s="100"/>
+      <c r="A63" s="103"/>
+      <c r="B63" s="101"/>
       <c r="C63" s="17" t="s">
         <v>94</v>
       </c>
@@ -3167,7 +3173,7 @@
       <c r="E63" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="100"/>
+      <c r="F63" s="101"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3181,10 +3187,10 @@
       <c r="H64" s="24"/>
     </row>
     <row r="65" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="101" t="s">
+      <c r="A65" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="99" t="s">
+      <c r="B65" s="100" t="s">
         <v>97</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -3201,11 +3207,11 @@
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="102"/>
-      <c r="B66" s="100"/>
+    <row r="66" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="103"/>
+      <c r="B66" s="101"/>
       <c r="C66" s="15" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="D66" s="26" t="s">
         <v>24</v>
@@ -3213,12 +3219,12 @@
       <c r="E66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="100"/>
+      <c r="F66" s="101"/>
       <c r="H66" s="18"/>
     </row>
     <row r="67" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="102"/>
-      <c r="B67" s="100"/>
+      <c r="A67" s="103"/>
+      <c r="B67" s="101"/>
       <c r="C67" s="17" t="s">
         <v>98</v>
       </c>
@@ -3228,12 +3234,12 @@
       <c r="E67" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="100"/>
+      <c r="F67" s="101"/>
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="102"/>
-      <c r="B68" s="100"/>
+      <c r="A68" s="103"/>
+      <c r="B68" s="101"/>
       <c r="C68" s="17" t="s">
         <v>99</v>
       </c>
@@ -3243,7 +3249,7 @@
       <c r="E68" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="100"/>
+      <c r="F68" s="101"/>
       <c r="H68" s="18"/>
     </row>
     <row r="69" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3257,10 +3263,10 @@
       <c r="H69" s="24"/>
     </row>
     <row r="70" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="101" t="s">
+      <c r="A70" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="99" t="s">
+      <c r="B70" s="100" t="s">
         <v>103</v>
       </c>
       <c r="C70" s="15" t="s">
@@ -3277,11 +3283,11 @@
       </c>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="102"/>
-      <c r="B71" s="100"/>
+    <row r="71" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="103"/>
+      <c r="B71" s="101"/>
       <c r="C71" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>24</v>
@@ -3289,12 +3295,12 @@
       <c r="E71" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="100"/>
+      <c r="F71" s="101"/>
       <c r="H71" s="18"/>
     </row>
     <row r="72" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="102"/>
-      <c r="B72" s="100"/>
+      <c r="A72" s="103"/>
+      <c r="B72" s="101"/>
       <c r="C72" s="17" t="s">
         <v>25</v>
       </c>
@@ -3304,12 +3310,12 @@
       <c r="E72" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="100"/>
+      <c r="F72" s="101"/>
       <c r="H72" s="18"/>
     </row>
     <row r="73" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="102"/>
-      <c r="B73" s="100"/>
+      <c r="A73" s="103"/>
+      <c r="B73" s="101"/>
       <c r="C73" s="17" t="s">
         <v>94</v>
       </c>
@@ -3319,12 +3325,12 @@
       <c r="E73" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="100"/>
+      <c r="F73" s="101"/>
       <c r="H73" s="18"/>
     </row>
     <row r="74" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="102"/>
-      <c r="B74" s="100"/>
+      <c r="A74" s="103"/>
+      <c r="B74" s="101"/>
       <c r="C74" s="17" t="s">
         <v>105</v>
       </c>
@@ -3334,7 +3340,7 @@
       <c r="E74" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="100"/>
+      <c r="F74" s="101"/>
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3348,10 +3354,10 @@
       <c r="H75" s="24"/>
     </row>
     <row r="76" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="101" t="s">
+      <c r="A76" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="99" t="s">
+      <c r="B76" s="100" t="s">
         <v>108</v>
       </c>
       <c r="C76" s="15" t="s">
@@ -3368,11 +3374,11 @@
       </c>
       <c r="H76" s="18"/>
     </row>
-    <row r="77" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="102"/>
-      <c r="B77" s="100"/>
+    <row r="77" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="103"/>
+      <c r="B77" s="101"/>
       <c r="C77" s="15" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="D77" s="26" t="s">
         <v>24</v>
@@ -3380,12 +3386,12 @@
       <c r="E77" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="100"/>
+      <c r="F77" s="101"/>
       <c r="H77" s="18"/>
     </row>
     <row r="78" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="102"/>
-      <c r="B78" s="100"/>
+      <c r="A78" s="103"/>
+      <c r="B78" s="101"/>
       <c r="C78" s="17" t="s">
         <v>25</v>
       </c>
@@ -3395,12 +3401,12 @@
       <c r="E78" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="100"/>
+      <c r="F78" s="101"/>
       <c r="H78" s="18"/>
     </row>
     <row r="79" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="102"/>
-      <c r="B79" s="100"/>
+      <c r="A79" s="103"/>
+      <c r="B79" s="101"/>
       <c r="C79" s="17" t="s">
         <v>99</v>
       </c>
@@ -3410,12 +3416,12 @@
       <c r="E79" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F79" s="100"/>
+      <c r="F79" s="101"/>
       <c r="H79" s="18"/>
     </row>
     <row r="80" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="102"/>
-      <c r="B80" s="100"/>
+      <c r="A80" s="103"/>
+      <c r="B80" s="101"/>
       <c r="C80" s="17" t="s">
         <v>109</v>
       </c>
@@ -3425,7 +3431,7 @@
       <c r="E80" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="100"/>
+      <c r="F80" s="101"/>
       <c r="H80" s="18"/>
     </row>
     <row r="81" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3439,10 +3445,10 @@
       <c r="H81" s="24"/>
     </row>
     <row r="82" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="101" t="s">
+      <c r="A82" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="99" t="s">
+      <c r="B82" s="100" t="s">
         <v>113</v>
       </c>
       <c r="C82" s="15" t="s">
@@ -3459,11 +3465,11 @@
       </c>
       <c r="H82" s="18"/>
     </row>
-    <row r="83" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="102"/>
-      <c r="B83" s="100"/>
+    <row r="83" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="103"/>
+      <c r="B83" s="101"/>
       <c r="C83" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D83" s="26" t="s">
         <v>24</v>
@@ -3471,12 +3477,12 @@
       <c r="E83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="100"/>
+      <c r="F83" s="101"/>
       <c r="H83" s="18"/>
     </row>
     <row r="84" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="102"/>
-      <c r="B84" s="100"/>
+      <c r="A84" s="103"/>
+      <c r="B84" s="101"/>
       <c r="C84" s="17" t="s">
         <v>25</v>
       </c>
@@ -3486,12 +3492,12 @@
       <c r="E84" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F84" s="100"/>
+      <c r="F84" s="101"/>
       <c r="H84" s="18"/>
     </row>
     <row r="85" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="102"/>
-      <c r="B85" s="100"/>
+      <c r="A85" s="103"/>
+      <c r="B85" s="101"/>
       <c r="C85" s="17" t="s">
         <v>115</v>
       </c>
@@ -3501,7 +3507,7 @@
       <c r="E85" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="100"/>
+      <c r="F85" s="101"/>
       <c r="H85" s="18"/>
     </row>
     <row r="86" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3515,10 +3521,10 @@
       <c r="H86" s="24"/>
     </row>
     <row r="87" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="B87" s="99" t="s">
+      <c r="B87" s="100" t="s">
         <v>118</v>
       </c>
       <c r="C87" s="15" t="s">
@@ -3535,11 +3541,11 @@
       </c>
       <c r="H87" s="18"/>
     </row>
-    <row r="88" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="102"/>
-      <c r="B88" s="100"/>
+    <row r="88" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="103"/>
+      <c r="B88" s="101"/>
       <c r="C88" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D88" s="26" t="s">
         <v>24</v>
@@ -3547,12 +3553,12 @@
       <c r="E88" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F88" s="100"/>
+      <c r="F88" s="101"/>
       <c r="H88" s="18"/>
     </row>
     <row r="89" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="102"/>
-      <c r="B89" s="100"/>
+      <c r="A89" s="103"/>
+      <c r="B89" s="101"/>
       <c r="C89" s="17" t="s">
         <v>25</v>
       </c>
@@ -3562,12 +3568,12 @@
       <c r="E89" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="100"/>
+      <c r="F89" s="101"/>
       <c r="H89" s="18"/>
     </row>
     <row r="90" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="102"/>
-      <c r="B90" s="100"/>
+      <c r="A90" s="103"/>
+      <c r="B90" s="101"/>
       <c r="C90" s="17" t="s">
         <v>122</v>
       </c>
@@ -3577,7 +3583,7 @@
       <c r="E90" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="100"/>
+      <c r="F90" s="101"/>
       <c r="H90" s="18"/>
     </row>
     <row r="91" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3591,10 +3597,10 @@
       <c r="H91" s="24"/>
     </row>
     <row r="92" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="101" t="s">
+      <c r="A92" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="99" t="s">
+      <c r="B92" s="100" t="s">
         <v>128</v>
       </c>
       <c r="C92" s="15" t="s">
@@ -3611,11 +3617,11 @@
       </c>
       <c r="H92" s="18"/>
     </row>
-    <row r="93" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="102"/>
-      <c r="B93" s="100"/>
+    <row r="93" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="103"/>
+      <c r="B93" s="101"/>
       <c r="C93" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D93" s="26" t="s">
         <v>24</v>
@@ -3623,12 +3629,12 @@
       <c r="E93" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="100"/>
+      <c r="F93" s="101"/>
       <c r="H93" s="18"/>
     </row>
     <row r="94" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="102"/>
-      <c r="B94" s="100"/>
+      <c r="A94" s="103"/>
+      <c r="B94" s="101"/>
       <c r="C94" s="17" t="s">
         <v>25</v>
       </c>
@@ -3638,12 +3644,12 @@
       <c r="E94" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="100"/>
+      <c r="F94" s="101"/>
       <c r="H94" s="18"/>
     </row>
     <row r="95" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="102"/>
-      <c r="B95" s="100"/>
+      <c r="A95" s="103"/>
+      <c r="B95" s="101"/>
       <c r="C95" s="17" t="s">
         <v>131</v>
       </c>
@@ -3653,7 +3659,7 @@
       <c r="E95" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F95" s="100"/>
+      <c r="F95" s="101"/>
       <c r="H95" s="18"/>
     </row>
     <row r="96" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3667,10 +3673,10 @@
       <c r="H96" s="24"/>
     </row>
     <row r="97" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="101" t="s">
+      <c r="A97" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="B97" s="99" t="s">
+      <c r="B97" s="100" t="s">
         <v>139</v>
       </c>
       <c r="C97" s="15" t="s">
@@ -3687,11 +3693,11 @@
       </c>
       <c r="H97" s="18"/>
     </row>
-    <row r="98" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="102"/>
-      <c r="B98" s="100"/>
+    <row r="98" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="103"/>
+      <c r="B98" s="101"/>
       <c r="C98" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>24</v>
@@ -3699,12 +3705,12 @@
       <c r="E98" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F98" s="100"/>
+      <c r="F98" s="101"/>
       <c r="H98" s="18"/>
     </row>
     <row r="99" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="102"/>
-      <c r="B99" s="100"/>
+      <c r="A99" s="103"/>
+      <c r="B99" s="101"/>
       <c r="C99" s="17" t="s">
         <v>25</v>
       </c>
@@ -3714,12 +3720,12 @@
       <c r="E99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="100"/>
+      <c r="F99" s="101"/>
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="102"/>
-      <c r="B100" s="100"/>
+      <c r="A100" s="103"/>
+      <c r="B100" s="101"/>
       <c r="C100" s="17" t="s">
         <v>131</v>
       </c>
@@ -3729,12 +3735,12 @@
       <c r="E100" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F100" s="100"/>
+      <c r="F100" s="101"/>
       <c r="H100" s="18"/>
     </row>
     <row r="101" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="102"/>
-      <c r="B101" s="100"/>
+      <c r="A101" s="103"/>
+      <c r="B101" s="101"/>
       <c r="C101" s="17" t="s">
         <v>143</v>
       </c>
@@ -3744,7 +3750,7 @@
       <c r="E101" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F101" s="100"/>
+      <c r="F101" s="101"/>
       <c r="H101" s="18"/>
     </row>
     <row r="102" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3758,10 +3764,10 @@
       <c r="H102" s="24"/>
     </row>
     <row r="103" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="101" t="s">
+      <c r="A103" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="99" t="s">
+      <c r="B103" s="100" t="s">
         <v>141</v>
       </c>
       <c r="C103" s="15" t="s">
@@ -3778,11 +3784,11 @@
       </c>
       <c r="H103" s="18"/>
     </row>
-    <row r="104" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="102"/>
-      <c r="B104" s="100"/>
+    <row r="104" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="103"/>
+      <c r="B104" s="101"/>
       <c r="C104" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D104" s="26" t="s">
         <v>24</v>
@@ -3790,12 +3796,12 @@
       <c r="E104" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="100"/>
+      <c r="F104" s="101"/>
       <c r="H104" s="18"/>
     </row>
     <row r="105" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="102"/>
-      <c r="B105" s="100"/>
+      <c r="A105" s="103"/>
+      <c r="B105" s="101"/>
       <c r="C105" s="17" t="s">
         <v>25</v>
       </c>
@@ -3805,12 +3811,12 @@
       <c r="E105" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="100"/>
+      <c r="F105" s="101"/>
       <c r="H105" s="18"/>
     </row>
     <row r="106" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="102"/>
-      <c r="B106" s="100"/>
+      <c r="A106" s="103"/>
+      <c r="B106" s="101"/>
       <c r="C106" s="17" t="s">
         <v>153</v>
       </c>
@@ -3820,12 +3826,12 @@
       <c r="E106" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F106" s="100"/>
+      <c r="F106" s="101"/>
       <c r="H106" s="18"/>
     </row>
     <row r="107" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="102"/>
-      <c r="B107" s="100"/>
+      <c r="A107" s="103"/>
+      <c r="B107" s="101"/>
       <c r="C107" s="17" t="s">
         <v>155</v>
       </c>
@@ -3835,7 +3841,7 @@
       <c r="E107" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="100"/>
+      <c r="F107" s="101"/>
       <c r="H107" s="18"/>
     </row>
     <row r="108" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3849,10 +3855,10 @@
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="101" t="s">
+      <c r="A109" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="99" t="s">
+      <c r="B109" s="100" t="s">
         <v>142</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -3869,11 +3875,11 @@
       </c>
       <c r="H109" s="18"/>
     </row>
-    <row r="110" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="102"/>
-      <c r="B110" s="100"/>
+    <row r="110" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="103"/>
+      <c r="B110" s="101"/>
       <c r="C110" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D110" s="26" t="s">
         <v>24</v>
@@ -3881,12 +3887,12 @@
       <c r="E110" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="100"/>
+      <c r="F110" s="101"/>
       <c r="H110" s="18"/>
     </row>
     <row r="111" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="102"/>
-      <c r="B111" s="100"/>
+      <c r="A111" s="103"/>
+      <c r="B111" s="101"/>
       <c r="C111" s="17" t="s">
         <v>25</v>
       </c>
@@ -3896,12 +3902,12 @@
       <c r="E111" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F111" s="100"/>
+      <c r="F111" s="101"/>
       <c r="H111" s="18"/>
     </row>
     <row r="112" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="102"/>
-      <c r="B112" s="100"/>
+      <c r="A112" s="103"/>
+      <c r="B112" s="101"/>
       <c r="C112" s="17" t="s">
         <v>153</v>
       </c>
@@ -3911,12 +3917,12 @@
       <c r="E112" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F112" s="100"/>
+      <c r="F112" s="101"/>
       <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="102"/>
-      <c r="B113" s="100"/>
+      <c r="A113" s="103"/>
+      <c r="B113" s="101"/>
       <c r="C113" s="17" t="s">
         <v>161</v>
       </c>
@@ -3926,7 +3932,7 @@
       <c r="E113" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="100"/>
+      <c r="F113" s="101"/>
       <c r="H113" s="18"/>
     </row>
     <row r="114" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3940,10 +3946,10 @@
       <c r="H114" s="24"/>
     </row>
     <row r="115" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="101" t="s">
+      <c r="A115" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="B115" s="99" t="s">
+      <c r="B115" s="100" t="s">
         <v>164</v>
       </c>
       <c r="C115" s="15" t="s">
@@ -3960,11 +3966,11 @@
       </c>
       <c r="H115" s="18"/>
     </row>
-    <row r="116" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="102"/>
-      <c r="B116" s="100"/>
+    <row r="116" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="103"/>
+      <c r="B116" s="101"/>
       <c r="C116" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D116" s="26" t="s">
         <v>24</v>
@@ -3972,12 +3978,12 @@
       <c r="E116" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F116" s="100"/>
+      <c r="F116" s="101"/>
       <c r="H116" s="18"/>
     </row>
     <row r="117" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="102"/>
-      <c r="B117" s="100"/>
+      <c r="A117" s="103"/>
+      <c r="B117" s="101"/>
       <c r="C117" s="17" t="s">
         <v>25</v>
       </c>
@@ -3987,12 +3993,12 @@
       <c r="E117" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F117" s="100"/>
+      <c r="F117" s="101"/>
       <c r="H117" s="18"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="102"/>
-      <c r="B118" s="100"/>
+      <c r="A118" s="103"/>
+      <c r="B118" s="101"/>
       <c r="C118" s="48" t="s">
         <v>168</v>
       </c>
@@ -4002,7 +4008,7 @@
       <c r="E118" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F118" s="100"/>
+      <c r="F118" s="101"/>
       <c r="H118" s="18"/>
     </row>
     <row r="119" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -4016,10 +4022,10 @@
       <c r="H119" s="24"/>
     </row>
     <row r="120" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="101" t="s">
+      <c r="A120" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="B120" s="106" t="s">
+      <c r="B120" s="112" t="s">
         <v>171</v>
       </c>
       <c r="C120" s="51" t="s">
@@ -4036,11 +4042,11 @@
       </c>
       <c r="H120" s="18"/>
     </row>
-    <row r="121" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="102"/>
-      <c r="B121" s="100"/>
+    <row r="121" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="103"/>
+      <c r="B121" s="101"/>
       <c r="C121" s="51" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D121" s="52" t="s">
         <v>24</v>
@@ -4048,12 +4054,12 @@
       <c r="E121" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F121" s="100"/>
+      <c r="F121" s="101"/>
       <c r="H121" s="18"/>
     </row>
     <row r="122" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="102"/>
-      <c r="B122" s="100"/>
+      <c r="A122" s="103"/>
+      <c r="B122" s="101"/>
       <c r="C122" s="48" t="s">
         <v>25</v>
       </c>
@@ -4063,12 +4069,12 @@
       <c r="E122" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F122" s="100"/>
+      <c r="F122" s="101"/>
       <c r="H122" s="18"/>
     </row>
     <row r="123" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="102"/>
-      <c r="B123" s="100"/>
+      <c r="A123" s="103"/>
+      <c r="B123" s="101"/>
       <c r="C123" s="48" t="s">
         <v>179</v>
       </c>
@@ -4078,7 +4084,7 @@
       <c r="E123" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F123" s="100"/>
+      <c r="F123" s="101"/>
       <c r="H123" s="18"/>
     </row>
     <row r="124" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -4092,10 +4098,10 @@
       <c r="H124" s="60"/>
     </row>
     <row r="125" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="101" t="s">
+      <c r="A125" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="B125" s="99" t="s">
+      <c r="B125" s="100" t="s">
         <v>185</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -4112,11 +4118,11 @@
       </c>
       <c r="H125" s="18"/>
     </row>
-    <row r="126" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="102"/>
-      <c r="B126" s="100"/>
+    <row r="126" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A126" s="103"/>
+      <c r="B126" s="101"/>
       <c r="C126" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D126" s="26" t="s">
         <v>24</v>
@@ -4124,12 +4130,12 @@
       <c r="E126" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F126" s="100"/>
+      <c r="F126" s="101"/>
       <c r="H126" s="18"/>
     </row>
     <row r="127" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="102"/>
-      <c r="B127" s="100"/>
+      <c r="A127" s="103"/>
+      <c r="B127" s="101"/>
       <c r="C127" s="17" t="s">
         <v>25</v>
       </c>
@@ -4139,12 +4145,12 @@
       <c r="E127" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F127" s="100"/>
+      <c r="F127" s="101"/>
       <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="102"/>
-      <c r="B128" s="100"/>
+      <c r="A128" s="103"/>
+      <c r="B128" s="101"/>
       <c r="C128" s="17" t="s">
         <v>186</v>
       </c>
@@ -4154,7 +4160,7 @@
       <c r="E128" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F128" s="100"/>
+      <c r="F128" s="101"/>
       <c r="H128" s="18"/>
     </row>
     <row r="129" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -4168,10 +4174,10 @@
       <c r="H129" s="24"/>
     </row>
     <row r="130" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="101" t="s">
+      <c r="A130" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="B130" s="99" t="s">
+      <c r="B130" s="100" t="s">
         <v>189</v>
       </c>
       <c r="C130" s="15" t="s">
@@ -4188,11 +4194,11 @@
       </c>
       <c r="H130" s="18"/>
     </row>
-    <row r="131" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="102"/>
-      <c r="B131" s="100"/>
+    <row r="131" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A131" s="103"/>
+      <c r="B131" s="101"/>
       <c r="C131" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D131" s="26" t="s">
         <v>24</v>
@@ -4200,12 +4206,12 @@
       <c r="E131" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F131" s="100"/>
+      <c r="F131" s="101"/>
       <c r="H131" s="18"/>
     </row>
     <row r="132" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="102"/>
-      <c r="B132" s="100"/>
+      <c r="A132" s="103"/>
+      <c r="B132" s="101"/>
       <c r="C132" s="17" t="s">
         <v>25</v>
       </c>
@@ -4215,12 +4221,12 @@
       <c r="E132" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F132" s="100"/>
+      <c r="F132" s="101"/>
       <c r="H132" s="18"/>
     </row>
     <row r="133" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="102"/>
-      <c r="B133" s="100"/>
+      <c r="A133" s="103"/>
+      <c r="B133" s="101"/>
       <c r="C133" s="48" t="s">
         <v>186</v>
       </c>
@@ -4230,12 +4236,12 @@
       <c r="E133" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F133" s="100"/>
+      <c r="F133" s="101"/>
       <c r="H133" s="18"/>
     </row>
     <row r="134" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="102"/>
-      <c r="B134" s="100"/>
+      <c r="A134" s="103"/>
+      <c r="B134" s="101"/>
       <c r="C134" s="48" t="s">
         <v>190</v>
       </c>
@@ -4245,7 +4251,7 @@
       <c r="E134" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F134" s="100"/>
+      <c r="F134" s="101"/>
       <c r="H134" s="18"/>
     </row>
     <row r="135" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -4259,10 +4265,10 @@
       <c r="H135" s="24"/>
     </row>
     <row r="136" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="101" t="s">
+      <c r="A136" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="B136" s="106" t="s">
+      <c r="B136" s="112" t="s">
         <v>159</v>
       </c>
       <c r="C136" s="51" t="s">
@@ -4280,11 +4286,11 @@
       <c r="H136" s="18"/>
       <c r="J136" s="79"/>
     </row>
-    <row r="137" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="102"/>
-      <c r="B137" s="100"/>
+    <row r="137" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A137" s="103"/>
+      <c r="B137" s="101"/>
       <c r="C137" s="51" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D137" s="52" t="s">
         <v>24</v>
@@ -4292,12 +4298,12 @@
       <c r="E137" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F137" s="100"/>
+      <c r="F137" s="101"/>
       <c r="H137" s="18"/>
     </row>
     <row r="138" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="102"/>
-      <c r="B138" s="100"/>
+      <c r="A138" s="103"/>
+      <c r="B138" s="101"/>
       <c r="C138" s="48" t="s">
         <v>25</v>
       </c>
@@ -4307,12 +4313,12 @@
       <c r="E138" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F138" s="100"/>
+      <c r="F138" s="101"/>
       <c r="H138" s="18"/>
     </row>
     <row r="139" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="102"/>
-      <c r="B139" s="100"/>
+      <c r="A139" s="103"/>
+      <c r="B139" s="101"/>
       <c r="C139" s="66" t="s">
         <v>194</v>
       </c>
@@ -4322,12 +4328,12 @@
       <c r="E139" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F139" s="100"/>
+      <c r="F139" s="101"/>
       <c r="H139" s="18"/>
     </row>
     <row r="140" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="102"/>
-      <c r="B140" s="100"/>
+      <c r="A140" s="103"/>
+      <c r="B140" s="101"/>
       <c r="C140" s="66" t="s">
         <v>197</v>
       </c>
@@ -4337,7 +4343,7 @@
       <c r="E140" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F140" s="100"/>
+      <c r="F140" s="101"/>
       <c r="H140" s="18"/>
     </row>
     <row r="141" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -4351,10 +4357,10 @@
       <c r="H141" s="60"/>
     </row>
     <row r="142" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="101" t="s">
+      <c r="A142" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="B142" s="99" t="s">
+      <c r="B142" s="100" t="s">
         <v>200</v>
       </c>
       <c r="C142" s="15" t="s">
@@ -4371,11 +4377,11 @@
       </c>
       <c r="H142" s="18"/>
     </row>
-    <row r="143" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="102"/>
-      <c r="B143" s="100"/>
+    <row r="143" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A143" s="103"/>
+      <c r="B143" s="101"/>
       <c r="C143" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D143" s="26" t="s">
         <v>24</v>
@@ -4383,12 +4389,12 @@
       <c r="E143" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F143" s="100"/>
+      <c r="F143" s="101"/>
       <c r="H143" s="18"/>
     </row>
     <row r="144" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="102"/>
-      <c r="B144" s="100"/>
+      <c r="A144" s="103"/>
+      <c r="B144" s="101"/>
       <c r="C144" s="17" t="s">
         <v>25</v>
       </c>
@@ -4398,12 +4404,12 @@
       <c r="E144" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F144" s="100"/>
+      <c r="F144" s="101"/>
       <c r="H144" s="18"/>
     </row>
     <row r="145" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="102"/>
-      <c r="B145" s="100"/>
+      <c r="A145" s="103"/>
+      <c r="B145" s="101"/>
       <c r="C145" s="17" t="s">
         <v>201</v>
       </c>
@@ -4413,12 +4419,12 @@
       <c r="E145" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F145" s="100"/>
+      <c r="F145" s="101"/>
       <c r="H145" s="18"/>
     </row>
     <row r="146" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="102"/>
-      <c r="B146" s="100"/>
+      <c r="A146" s="103"/>
+      <c r="B146" s="101"/>
       <c r="C146" s="17" t="s">
         <v>203</v>
       </c>
@@ -4428,7 +4434,7 @@
       <c r="E146" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F146" s="100"/>
+      <c r="F146" s="101"/>
       <c r="H146" s="18"/>
     </row>
     <row r="147" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -4442,10 +4448,10 @@
       <c r="H147" s="24"/>
     </row>
     <row r="148" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="101" t="s">
+      <c r="A148" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="B148" s="99" t="s">
+      <c r="B148" s="100" t="s">
         <v>206</v>
       </c>
       <c r="C148" s="15" t="s">
@@ -4462,11 +4468,11 @@
       </c>
       <c r="H148" s="18"/>
     </row>
-    <row r="149" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="102"/>
-      <c r="B149" s="100"/>
+    <row r="149" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A149" s="103"/>
+      <c r="B149" s="101"/>
       <c r="C149" s="15" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="D149" s="26" t="s">
         <v>24</v>
@@ -4474,12 +4480,12 @@
       <c r="E149" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F149" s="100"/>
+      <c r="F149" s="101"/>
       <c r="H149" s="18"/>
     </row>
     <row r="150" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="102"/>
-      <c r="B150" s="100"/>
+      <c r="A150" s="103"/>
+      <c r="B150" s="101"/>
       <c r="C150" s="17" t="s">
         <v>25</v>
       </c>
@@ -4489,12 +4495,12 @@
       <c r="E150" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F150" s="100"/>
+      <c r="F150" s="101"/>
       <c r="H150" s="18"/>
     </row>
     <row r="151" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="102"/>
-      <c r="B151" s="100"/>
+      <c r="A151" s="103"/>
+      <c r="B151" s="101"/>
       <c r="C151" s="17" t="s">
         <v>207</v>
       </c>
@@ -4504,7 +4510,7 @@
       <c r="E151" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F151" s="100"/>
+      <c r="F151" s="101"/>
       <c r="H151" s="18"/>
     </row>
     <row r="152" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -4518,10 +4524,10 @@
       <c r="H152" s="24"/>
     </row>
     <row r="153" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="101" t="s">
+      <c r="A153" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="B153" s="99" t="s">
+      <c r="B153" s="100" t="s">
         <v>178</v>
       </c>
       <c r="C153" s="15" t="s">
@@ -4538,11 +4544,11 @@
       </c>
       <c r="H153" s="18"/>
     </row>
-    <row r="154" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="101"/>
-      <c r="B154" s="99"/>
+    <row r="154" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A154" s="102"/>
+      <c r="B154" s="100"/>
       <c r="C154" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D154" s="26" t="s">
         <v>24</v>
@@ -4555,8 +4561,8 @@
       <c r="H154" s="18"/>
     </row>
     <row r="155" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="101"/>
-      <c r="B155" s="99"/>
+      <c r="A155" s="102"/>
+      <c r="B155" s="100"/>
       <c r="C155" s="17" t="s">
         <v>25</v>
       </c>
@@ -4571,8 +4577,8 @@
       <c r="H155" s="18"/>
     </row>
     <row r="156" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="101"/>
-      <c r="B156" s="99"/>
+      <c r="A156" s="102"/>
+      <c r="B156" s="100"/>
       <c r="C156" s="94" t="s">
         <v>241</v>
       </c>
@@ -4584,15 +4590,15 @@
       <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8" s="76" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="101"/>
-      <c r="B157" s="99"/>
+      <c r="A157" s="102"/>
+      <c r="B157" s="100"/>
       <c r="C157" s="98" t="s">
         <v>211</v>
       </c>
       <c r="D157" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="E157" s="120" t="s">
+      <c r="E157" s="99" t="s">
         <v>21</v>
       </c>
       <c r="F157" s="107"/>
@@ -4612,10 +4618,10 @@
       <c r="H158" s="24"/>
     </row>
     <row r="159" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="101" t="s">
+      <c r="A159" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="B159" s="99" t="s">
+      <c r="B159" s="100" t="s">
         <v>195</v>
       </c>
       <c r="C159" s="15" t="s">
@@ -4632,11 +4638,11 @@
       </c>
       <c r="H159" s="18"/>
     </row>
-    <row r="160" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="102"/>
-      <c r="B160" s="100"/>
+    <row r="160" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A160" s="103"/>
+      <c r="B160" s="101"/>
       <c r="C160" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D160" s="26" t="s">
         <v>24</v>
@@ -4644,12 +4650,12 @@
       <c r="E160" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F160" s="100"/>
+      <c r="F160" s="101"/>
       <c r="H160" s="18"/>
     </row>
     <row r="161" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="102"/>
-      <c r="B161" s="100"/>
+      <c r="A161" s="103"/>
+      <c r="B161" s="101"/>
       <c r="C161" s="17" t="s">
         <v>25</v>
       </c>
@@ -4659,12 +4665,12 @@
       <c r="E161" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F161" s="100"/>
+      <c r="F161" s="101"/>
       <c r="H161" s="18"/>
     </row>
     <row r="162" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A162" s="104"/>
-      <c r="B162" s="105"/>
+      <c r="A162" s="105"/>
+      <c r="B162" s="106"/>
       <c r="C162" s="61" t="s">
         <v>213</v>
       </c>
@@ -4674,7 +4680,7 @@
       <c r="E162" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F162" s="105"/>
+      <c r="F162" s="106"/>
       <c r="G162" s="62"/>
       <c r="H162" s="63"/>
     </row>
@@ -7242,12 +7248,77 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B130:B134"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="F159:F162"/>
+    <mergeCell ref="F115:F118"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="F103:F107"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="F120:F123"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="F130:F134"/>
+    <mergeCell ref="F136:F140"/>
+    <mergeCell ref="F153:F157"/>
+    <mergeCell ref="F142:F146"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A33:A37"/>
     <mergeCell ref="A153:A157"/>
     <mergeCell ref="F76:F80"/>
     <mergeCell ref="F70:F74"/>
@@ -7264,77 +7335,12 @@
     <mergeCell ref="F17:F20"/>
     <mergeCell ref="F82:F85"/>
     <mergeCell ref="F92:F95"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="F159:F162"/>
-    <mergeCell ref="F115:F118"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="F103:F107"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="F120:F123"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="F130:F134"/>
-    <mergeCell ref="F136:F140"/>
-    <mergeCell ref="F153:F157"/>
-    <mergeCell ref="F142:F146"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B130:B134"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="B153:B157"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="B70:B74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7348,8 +7354,8 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7387,10 +7393,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="120" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -7402,17 +7408,17 @@
       <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="110" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="100"/>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>24</v>
@@ -7420,12 +7426,12 @@
       <c r="E3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="100"/>
+      <c r="F3" s="101"/>
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="55" t="s">
         <v>182</v>
       </c>
@@ -7435,7 +7441,7 @@
       <c r="E4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="105"/>
+      <c r="F4" s="106"/>
       <c r="G4" s="62"/>
       <c r="H4" s="63"/>
     </row>
@@ -7450,10 +7456,10 @@
       <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="120" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -7465,17 +7471,17 @@
       <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="111" t="s">
+      <c r="F6" s="110" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="102"/>
-      <c r="B7" s="100"/>
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="103"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>24</v>
@@ -7483,12 +7489,12 @@
       <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="100"/>
+      <c r="F7" s="101"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="102"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="16" t="s">
         <v>182</v>
       </c>
@@ -7498,12 +7504,12 @@
       <c r="E8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="101"/>
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="104"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="84" t="s">
         <v>245</v>
       </c>
@@ -7513,7 +7519,7 @@
       <c r="E9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="105"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="62"/>
       <c r="H9" s="63"/>
     </row>
@@ -7528,10 +7534,10 @@
       <c r="H10" s="71"/>
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="120" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -7543,17 +7549,17 @@
       <c r="E11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="110" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
-      <c r="B12" s="100"/>
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="103"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>24</v>
@@ -7561,12 +7567,12 @@
       <c r="E12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="101"/>
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="16" t="s">
         <v>182</v>
       </c>
@@ -7576,12 +7582,12 @@
       <c r="E13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="101"/>
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="102"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="16" t="s">
         <v>209</v>
       </c>
@@ -7591,12 +7597,12 @@
       <c r="E14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="100"/>
+      <c r="F14" s="101"/>
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="104"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="55" t="s">
         <v>210</v>
       </c>
@@ -7606,7 +7612,7 @@
       <c r="E15" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="105"/>
+      <c r="F15" s="106"/>
       <c r="G15" s="62"/>
       <c r="H15" s="63"/>
     </row>
@@ -7621,10 +7627,10 @@
       <c r="H16" s="71"/>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="120" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -7636,17 +7642,17 @@
       <c r="E17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="110" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="100"/>
+    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="103"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="15" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>24</v>
@@ -7654,12 +7660,12 @@
       <c r="E18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="100"/>
+      <c r="F18" s="101"/>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="102"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="16" t="s">
         <v>182</v>
       </c>
@@ -7669,12 +7675,12 @@
       <c r="E19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="100"/>
+      <c r="F19" s="101"/>
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="55" t="s">
         <v>214</v>
       </c>
@@ -7684,7 +7690,7 @@
       <c r="E20" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="105"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="62"/>
       <c r="H20" s="63"/>
     </row>
@@ -7699,7 +7705,7 @@
       <c r="H21" s="71"/>
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="108" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="117" t="s">
@@ -7720,11 +7726,11 @@
       <c r="G22" s="13"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="101"/>
+    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="102"/>
       <c r="B23" s="118"/>
       <c r="C23" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>24</v>
@@ -7736,7 +7742,7 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="101"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="118"/>
       <c r="C24" s="16" t="s">
         <v>182</v>
@@ -7751,7 +7757,7 @@
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="101"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="118"/>
       <c r="C25" s="85" t="s">
         <v>215</v>
@@ -7769,7 +7775,7 @@
       <c r="H25" s="91"/>
     </row>
     <row r="26" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="101"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="118"/>
       <c r="C26" s="85" t="s">
         <v>216</v>
@@ -7785,7 +7791,7 @@
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="101"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="118"/>
       <c r="C27" s="85" t="s">
         <v>217</v>
@@ -7829,10 +7835,10 @@
       <c r="H29" s="71"/>
     </row>
     <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="120" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -7844,17 +7850,17 @@
       <c r="E30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="111" t="s">
+      <c r="F30" s="110" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="102"/>
-      <c r="B31" s="100"/>
+    <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="103"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>24</v>
@@ -7862,12 +7868,12 @@
       <c r="E31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="100"/>
+      <c r="F31" s="101"/>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="102"/>
-      <c r="B32" s="100"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="16" t="s">
         <v>182</v>
       </c>
@@ -7877,12 +7883,12 @@
       <c r="E32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="100"/>
+      <c r="F32" s="101"/>
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="104"/>
-      <c r="B33" s="105"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="106"/>
       <c r="C33" s="55" t="s">
         <v>220</v>
       </c>
@@ -7892,7 +7898,7 @@
       <c r="E33" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="105"/>
+      <c r="F33" s="106"/>
       <c r="G33" s="62"/>
       <c r="H33" s="63"/>
     </row>
@@ -7907,10 +7913,10 @@
       <c r="H34" s="71"/>
     </row>
     <row r="35" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="120" t="s">
         <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -7922,17 +7928,17 @@
       <c r="E35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="111" t="s">
+      <c r="F35" s="110" t="s">
         <v>48</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="14"/>
     </row>
-    <row r="36" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="100"/>
+    <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="103"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>24</v>
@@ -7940,12 +7946,12 @@
       <c r="E36" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="100"/>
+      <c r="F36" s="101"/>
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="102"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="16" t="s">
         <v>182</v>
       </c>
@@ -7955,12 +7961,12 @@
       <c r="E37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="100"/>
+      <c r="F37" s="101"/>
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="102"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="16" t="s">
         <v>220</v>
       </c>
@@ -7970,12 +7976,12 @@
       <c r="E38" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="100"/>
+      <c r="F38" s="101"/>
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="104"/>
-      <c r="B39" s="105"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="106"/>
       <c r="C39" s="55" t="s">
         <v>222</v>
       </c>
@@ -7985,7 +7991,7 @@
       <c r="E39" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="105"/>
+      <c r="F39" s="106"/>
       <c r="G39" s="62"/>
       <c r="H39" s="63"/>
     </row>
@@ -8000,10 +8006,10 @@
       <c r="H40" s="71"/>
     </row>
     <row r="41" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="120" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -8015,17 +8021,17 @@
       <c r="E41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="111" t="s">
+      <c r="F41" s="110" t="s">
         <v>232</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="102"/>
-      <c r="B42" s="100"/>
+    <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="103"/>
+      <c r="B42" s="101"/>
       <c r="C42" s="15" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>24</v>
@@ -8033,12 +8039,12 @@
       <c r="E42" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="100"/>
+      <c r="F42" s="101"/>
       <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="102"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="101"/>
       <c r="C43" s="16" t="s">
         <v>182</v>
       </c>
@@ -8048,12 +8054,12 @@
       <c r="E43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="100"/>
+      <c r="F43" s="101"/>
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="102"/>
-      <c r="B44" s="100"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="101"/>
       <c r="C44" s="16" t="s">
         <v>220</v>
       </c>
@@ -8063,12 +8069,12 @@
       <c r="E44" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="100"/>
+      <c r="F44" s="101"/>
       <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="102"/>
-      <c r="B45" s="100"/>
+      <c r="A45" s="103"/>
+      <c r="B45" s="101"/>
       <c r="C45" s="16" t="s">
         <v>222</v>
       </c>
@@ -8078,12 +8084,12 @@
       <c r="E45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="100"/>
+      <c r="F45" s="101"/>
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="102"/>
-      <c r="B46" s="100"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="16" t="s">
         <v>225</v>
       </c>
@@ -8093,12 +8099,12 @@
       <c r="E46" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="100"/>
+      <c r="F46" s="101"/>
       <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="104"/>
-      <c r="B47" s="105"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="106"/>
       <c r="C47" s="55" t="s">
         <v>227</v>
       </c>
@@ -8108,7 +8114,7 @@
       <c r="E47" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="105"/>
+      <c r="F47" s="106"/>
       <c r="G47" s="62"/>
       <c r="H47" s="63"/>
     </row>
@@ -8123,10 +8129,10 @@
       <c r="H48" s="71"/>
     </row>
     <row r="49" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="109" t="s">
+      <c r="A49" s="108" t="s">
         <v>228</v>
       </c>
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="120" t="s">
         <v>101</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -8138,17 +8144,17 @@
       <c r="E49" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="111" t="s">
+      <c r="F49" s="110" t="s">
         <v>232</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="14"/>
     </row>
-    <row r="50" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="102"/>
-      <c r="B50" s="100"/>
+    <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="103"/>
+      <c r="B50" s="101"/>
       <c r="C50" s="15" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>24</v>
@@ -8156,12 +8162,12 @@
       <c r="E50" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="100"/>
+      <c r="F50" s="101"/>
       <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="102"/>
-      <c r="B51" s="100"/>
+      <c r="A51" s="103"/>
+      <c r="B51" s="101"/>
       <c r="C51" s="16" t="s">
         <v>182</v>
       </c>
@@ -8171,12 +8177,12 @@
       <c r="E51" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="100"/>
+      <c r="F51" s="101"/>
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="102"/>
-      <c r="B52" s="100"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="16" t="s">
         <v>220</v>
       </c>
@@ -8186,12 +8192,12 @@
       <c r="E52" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="100"/>
+      <c r="F52" s="101"/>
       <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="102"/>
-      <c r="B53" s="100"/>
+      <c r="A53" s="103"/>
+      <c r="B53" s="101"/>
       <c r="C53" s="16" t="s">
         <v>222</v>
       </c>
@@ -8201,12 +8207,12 @@
       <c r="E53" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="100"/>
+      <c r="F53" s="101"/>
       <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="102"/>
-      <c r="B54" s="100"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="101"/>
       <c r="C54" s="16" t="s">
         <v>229</v>
       </c>
@@ -8216,12 +8222,12 @@
       <c r="E54" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="100"/>
+      <c r="F54" s="101"/>
       <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="104"/>
-      <c r="B55" s="105"/>
+      <c r="A55" s="105"/>
+      <c r="B55" s="106"/>
       <c r="C55" s="55" t="s">
         <v>231</v>
       </c>
@@ -8231,7 +8237,7 @@
       <c r="E55" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="105"/>
+      <c r="F55" s="106"/>
       <c r="G55" s="62"/>
       <c r="H55" s="63"/>
     </row>
@@ -8248,11 +8254,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="F35:F39"/>
     <mergeCell ref="F41:F47"/>
     <mergeCell ref="F49:F55"/>
@@ -8267,14 +8276,11 @@
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F30:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
